--- a/outputs-r202/g__UBA1179.xlsx
+++ b/outputs-r202/g__UBA1179.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -585,6 +590,11 @@
           <t>s__UBA1179 sp900318995</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>s__UBA1179 sp900318995</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -645,6 +655,11 @@
           <t>s__UBA1179 sp900319225</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>s__UBA1179 sp900319225</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -701,6 +716,11 @@
         <v>0.9958083642165003</v>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>s__UBA1179 sp900318995</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>s__UBA1179 sp900318995</t>
         </is>
